--- a/10_SystemCall/01 系统调用.xlsx
+++ b/10_SystemCall/01 系统调用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\10_SystemCall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B573C7-1E66-477D-A141-0B9B0564D03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C46E092-9546-40B9-B684-48A41EA9D1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="648" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="131">
   <si>
     <t>系统调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eax = 0xbe // 进R0的参数之1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重写 ntdll.ZwOpenProcess 函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +461,14 @@
   </si>
   <si>
     <t>5、IDA分析ntkrnlpa.exe的kifastcallentry(见.code)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、kifastcallentry返回R3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eax = 0xbe // 进R0的参数之1，服务号(4字节大小)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2862,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2907,22 +2911,27 @@
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>26</v>
+    <row r="21" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2932,7 +2941,7 @@
     <hyperlink ref="C9" location="Sheet3!B3" display="1）IDA 分析 win7 32位下 kernelbase.OpenProcess" xr:uid="{5B6A26BA-AEEC-4315-970D-743798C47F25}"/>
     <hyperlink ref="C10" location="Sheet3!B81" display="2）分析ntdll.ZwOpenProcess" xr:uid="{76B73E05-14A5-475D-880A-DCEFB4C5464D}"/>
     <hyperlink ref="C11" location="Sheet3!B99" display="3）分析KiFastSystemCall" xr:uid="{7E3C8649-422C-4BF6-8C4F-08876584F842}"/>
-    <hyperlink ref="B20" location="Sheet5!A1" display="重写 ntdll.ZwOpenProcess 函数" xr:uid="{FDD074D6-0737-4211-8EF7-77C5BDFD29BA}"/>
+    <hyperlink ref="B21" location="Sheet5!A1" display="重写 ntdll.ZwOpenProcess 函数" xr:uid="{FDD074D6-0737-4211-8EF7-77C5BDFD29BA}"/>
     <hyperlink ref="B13" location="Sheet4!A1" display="3）sysenter、sysexit" xr:uid="{7A6AF174-E9CD-4C75-9D9B-8E4E0FEFA551}"/>
     <hyperlink ref="B15" location="Sheet6!A1" display="4、进入R0需要的3个结构体" xr:uid="{276D8D3E-1C99-4A96-BBB5-EEF766E9150E}"/>
     <hyperlink ref="B17" location="Sheet7!A1" display="5、IDA分析ntkrnlpa.exe的kifastcallentry" xr:uid="{4A2B6601-745B-4584-A15E-5C7EF9DE7C1F}"/>
@@ -3000,7 +3009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7016365-DEAD-4607-91A9-2CF17E2376C2}">
   <dimension ref="B3:P111"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P91" sqref="P91"/>
     </sheetView>
   </sheetViews>
@@ -3018,7 +3027,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="P91" s="6" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.25">
@@ -3113,7 +3122,7 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3125,7 +3134,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3137,7 +3146,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3149,7 +3158,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3161,7 +3170,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3173,7 +3182,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3185,7 +3194,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3197,7 +3206,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3209,7 +3218,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3221,42 +3230,42 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3278,7 +3287,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3298,335 +3307,335 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H41" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H46" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3645,7 +3654,7 @@
   <sheetData>
     <row r="60" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
